--- a/po_analysis_by_asin/B07VNBC5PS_po_data.xlsx
+++ b/po_analysis_by_asin/B07VNBC5PS_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,95 +452,95 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>570</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>570</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>570</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>330</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45411</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45432</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45467</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45474</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>180</v>
@@ -548,41 +548,329 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45481</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45509</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45516</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45523</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45537</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B54" t="n">
         <v>180</v>
       </c>
     </row>
@@ -597,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,65 +907,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1050</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1200</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>390</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>580</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>300</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>180</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B07VNBC5PS_po_data.xlsx
+++ b/po_analysis_by_asin/B07VNBC5PS_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -901,7 +902,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1056,901 @@
       </c>
       <c r="B20" t="n">
         <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>345</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5510030073467</v>
+      </c>
+      <c r="D2" t="n">
+        <v>688.2218698717106</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>342</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.510782297323868</v>
+      </c>
+      <c r="D3" t="n">
+        <v>691.0980072117333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>340</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-20.31966872611999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>686.3270277381719</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>338</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-7.323274820908957</v>
+      </c>
+      <c r="D5" t="n">
+        <v>685.4753203139096</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>335</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.63211517214473</v>
+      </c>
+      <c r="D6" t="n">
+        <v>685.7699672253829</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-17.99165880893628</v>
+      </c>
+      <c r="D7" t="n">
+        <v>667.1170488252986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>331</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-22.38887021641529</v>
+      </c>
+      <c r="D8" t="n">
+        <v>669.7286368096466</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>328</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-26.49024282724122</v>
+      </c>
+      <c r="D9" t="n">
+        <v>679.4272011137825</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>326</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-36.84017872875516</v>
+      </c>
+      <c r="D10" t="n">
+        <v>677.9462782283488</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>324</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-24.73953175888536</v>
+      </c>
+      <c r="D11" t="n">
+        <v>663.0219411876814</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>317</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-10.83848209935677</v>
+      </c>
+      <c r="D12" t="n">
+        <v>647.9218004148671</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>303</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-35.16384496026387</v>
+      </c>
+      <c r="D13" t="n">
+        <v>638.7754757032565</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>300</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-54.22643367617699</v>
+      </c>
+      <c r="D14" t="n">
+        <v>620.609478289151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>298</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-50.7824937248345</v>
+      </c>
+      <c r="D15" t="n">
+        <v>658.2303356573709</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>296</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-47.38301485677529</v>
+      </c>
+      <c r="D16" t="n">
+        <v>636.099494348969</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>293</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-75.12203912483047</v>
+      </c>
+      <c r="D17" t="n">
+        <v>652.1470163712273</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>291</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-75.89184045778133</v>
+      </c>
+      <c r="D18" t="n">
+        <v>626.3447430941609</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>289</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-31.76370624190164</v>
+      </c>
+      <c r="D19" t="n">
+        <v>665.2322979662561</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>286</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-56.99669387866615</v>
+      </c>
+      <c r="D20" t="n">
+        <v>624.3351397925982</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>284</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-58.47600451779857</v>
+      </c>
+      <c r="D21" t="n">
+        <v>656.7832882578225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>282</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-72.56528532828105</v>
+      </c>
+      <c r="D22" t="n">
+        <v>621.3864486043724</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>277</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-58.88852438743053</v>
+      </c>
+      <c r="D23" t="n">
+        <v>672.9078333214946</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>275</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-72.99242096607676</v>
+      </c>
+      <c r="D24" t="n">
+        <v>609.6489405930225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>270</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-91.20582919071835</v>
+      </c>
+      <c r="D25" t="n">
+        <v>614.7855425227057</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>268</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-83.51019347134407</v>
+      </c>
+      <c r="D26" t="n">
+        <v>613.0331092777222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>265</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-77.51326738306278</v>
+      </c>
+      <c r="D27" t="n">
+        <v>591.2315946943029</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>263</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-85.68749804698612</v>
+      </c>
+      <c r="D28" t="n">
+        <v>601.6338371079014</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>258</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-93.39418558288745</v>
+      </c>
+      <c r="D29" t="n">
+        <v>596.2122583380341</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>256</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-85.0699769361165</v>
+      </c>
+      <c r="D30" t="n">
+        <v>630.0437527775626</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>254</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-101.6202177114198</v>
+      </c>
+      <c r="D31" t="n">
+        <v>595.9513445563022</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>247</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-121.2018536369302</v>
+      </c>
+      <c r="D32" t="n">
+        <v>565.4962411625565</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>242</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-108.4157484787357</v>
+      </c>
+      <c r="D33" t="n">
+        <v>605.5120494206094</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>240</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-120.0695449997605</v>
+      </c>
+      <c r="D34" t="n">
+        <v>565.6838344673314</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>238</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-98.1569368975275</v>
+      </c>
+      <c r="D35" t="n">
+        <v>596.3408382910482</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>233</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-123.1507567079288</v>
+      </c>
+      <c r="D36" t="n">
+        <v>558.8030000593279</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>231</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-99.07937779528889</v>
+      </c>
+      <c r="D37" t="n">
+        <v>583.3245498068366</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>224</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-127.3021344863284</v>
+      </c>
+      <c r="D38" t="n">
+        <v>572.5192337078789</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>221</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-101.7460589024874</v>
+      </c>
+      <c r="D39" t="n">
+        <v>574.0370140772895</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>219</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-131.1424980051536</v>
+      </c>
+      <c r="D40" t="n">
+        <v>550.552178025153</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>210</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-147.0474406954485</v>
+      </c>
+      <c r="D41" t="n">
+        <v>547.3779971616149</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>207</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-151.7080674280936</v>
+      </c>
+      <c r="D42" t="n">
+        <v>539.7203412191986</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>205</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-126.007092009298</v>
+      </c>
+      <c r="D43" t="n">
+        <v>555.0486016613869</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>200</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-166.3831988910805</v>
+      </c>
+      <c r="D44" t="n">
+        <v>532.5812654031087</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>198</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-130.7493440461967</v>
+      </c>
+      <c r="D45" t="n">
+        <v>534.8309792964264</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>184</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-160.9103694855962</v>
+      </c>
+      <c r="D46" t="n">
+        <v>504.680275581601</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>177</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-156.5322544396114</v>
+      </c>
+      <c r="D47" t="n">
+        <v>504.4191748126494</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>165</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-191.3342080315921</v>
+      </c>
+      <c r="D48" t="n">
+        <v>500.2519034245894</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>163</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-177.263427018036</v>
+      </c>
+      <c r="D49" t="n">
+        <v>506.7908271923731</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>161</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-172.2422641480331</v>
+      </c>
+      <c r="D50" t="n">
+        <v>492.3691708090032</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>151</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-224.6512425310385</v>
+      </c>
+      <c r="D51" t="n">
+        <v>481.588715308413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>149</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-206.3073305051263</v>
+      </c>
+      <c r="D52" t="n">
+        <v>484.0604105502857</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>147</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-208.713621373703</v>
+      </c>
+      <c r="D53" t="n">
+        <v>501.0721262433239</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>142</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-214.2704146040026</v>
+      </c>
+      <c r="D54" t="n">
+        <v>496.6898215604519</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>140</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-212.3792872544751</v>
+      </c>
+      <c r="D55" t="n">
+        <v>482.3863591813515</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>137</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-215.36396393634</v>
+      </c>
+      <c r="D56" t="n">
+        <v>482.3499601960738</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>135</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-233.0152440822609</v>
+      </c>
+      <c r="D57" t="n">
+        <v>496.380706145786</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>133</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-192.1506443929858</v>
+      </c>
+      <c r="D58" t="n">
+        <v>492.486980214681</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>130</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-188.4755501528893</v>
+      </c>
+      <c r="D59" t="n">
+        <v>481.9131718326693</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>128</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-213.3871742481033</v>
+      </c>
+      <c r="D60" t="n">
+        <v>481.3796036410936</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>126</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-214.6214659910042</v>
+      </c>
+      <c r="D61" t="n">
+        <v>488.9176511051792</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>123</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-202.4355411006563</v>
+      </c>
+      <c r="D62" t="n">
+        <v>483.1175582597609</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B07VNBC5PS_po_data.xlsx
+++ b/po_analysis_by_asin/B07VNBC5PS_po_data.xlsx
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,16 +1088,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1106,12 +1096,6 @@
       <c r="B2" t="n">
         <v>345</v>
       </c>
-      <c r="C2" t="n">
-        <v>-19.5510030073467</v>
-      </c>
-      <c r="D2" t="n">
-        <v>688.2218698717106</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1120,12 +1104,6 @@
       <c r="B3" t="n">
         <v>342</v>
       </c>
-      <c r="C3" t="n">
-        <v>8.510782297323868</v>
-      </c>
-      <c r="D3" t="n">
-        <v>691.0980072117333</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1134,12 +1112,6 @@
       <c r="B4" t="n">
         <v>340</v>
       </c>
-      <c r="C4" t="n">
-        <v>-20.31966872611999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>686.3270277381719</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1148,12 +1120,6 @@
       <c r="B5" t="n">
         <v>338</v>
       </c>
-      <c r="C5" t="n">
-        <v>-7.323274820908957</v>
-      </c>
-      <c r="D5" t="n">
-        <v>685.4753203139096</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1162,12 +1128,6 @@
       <c r="B6" t="n">
         <v>335</v>
       </c>
-      <c r="C6" t="n">
-        <v>12.63211517214473</v>
-      </c>
-      <c r="D6" t="n">
-        <v>685.7699672253829</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1176,12 +1136,6 @@
       <c r="B7" t="n">
         <v>333</v>
       </c>
-      <c r="C7" t="n">
-        <v>-17.99165880893628</v>
-      </c>
-      <c r="D7" t="n">
-        <v>667.1170488252986</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1190,12 +1144,6 @@
       <c r="B8" t="n">
         <v>331</v>
       </c>
-      <c r="C8" t="n">
-        <v>-22.38887021641529</v>
-      </c>
-      <c r="D8" t="n">
-        <v>669.7286368096466</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1204,12 +1152,6 @@
       <c r="B9" t="n">
         <v>328</v>
       </c>
-      <c r="C9" t="n">
-        <v>-26.49024282724122</v>
-      </c>
-      <c r="D9" t="n">
-        <v>679.4272011137825</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1218,12 +1160,6 @@
       <c r="B10" t="n">
         <v>326</v>
       </c>
-      <c r="C10" t="n">
-        <v>-36.84017872875516</v>
-      </c>
-      <c r="D10" t="n">
-        <v>677.9462782283488</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1232,12 +1168,6 @@
       <c r="B11" t="n">
         <v>324</v>
       </c>
-      <c r="C11" t="n">
-        <v>-24.73953175888536</v>
-      </c>
-      <c r="D11" t="n">
-        <v>663.0219411876814</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1246,12 +1176,6 @@
       <c r="B12" t="n">
         <v>317</v>
       </c>
-      <c r="C12" t="n">
-        <v>-10.83848209935677</v>
-      </c>
-      <c r="D12" t="n">
-        <v>647.9218004148671</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1260,12 +1184,6 @@
       <c r="B13" t="n">
         <v>303</v>
       </c>
-      <c r="C13" t="n">
-        <v>-35.16384496026387</v>
-      </c>
-      <c r="D13" t="n">
-        <v>638.7754757032565</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1274,12 +1192,6 @@
       <c r="B14" t="n">
         <v>300</v>
       </c>
-      <c r="C14" t="n">
-        <v>-54.22643367617699</v>
-      </c>
-      <c r="D14" t="n">
-        <v>620.609478289151</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1288,12 +1200,6 @@
       <c r="B15" t="n">
         <v>298</v>
       </c>
-      <c r="C15" t="n">
-        <v>-50.7824937248345</v>
-      </c>
-      <c r="D15" t="n">
-        <v>658.2303356573709</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1302,12 +1208,6 @@
       <c r="B16" t="n">
         <v>296</v>
       </c>
-      <c r="C16" t="n">
-        <v>-47.38301485677529</v>
-      </c>
-      <c r="D16" t="n">
-        <v>636.099494348969</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1316,12 +1216,6 @@
       <c r="B17" t="n">
         <v>293</v>
       </c>
-      <c r="C17" t="n">
-        <v>-75.12203912483047</v>
-      </c>
-      <c r="D17" t="n">
-        <v>652.1470163712273</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1330,12 +1224,6 @@
       <c r="B18" t="n">
         <v>291</v>
       </c>
-      <c r="C18" t="n">
-        <v>-75.89184045778133</v>
-      </c>
-      <c r="D18" t="n">
-        <v>626.3447430941609</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1344,12 +1232,6 @@
       <c r="B19" t="n">
         <v>289</v>
       </c>
-      <c r="C19" t="n">
-        <v>-31.76370624190164</v>
-      </c>
-      <c r="D19" t="n">
-        <v>665.2322979662561</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1358,12 +1240,6 @@
       <c r="B20" t="n">
         <v>286</v>
       </c>
-      <c r="C20" t="n">
-        <v>-56.99669387866615</v>
-      </c>
-      <c r="D20" t="n">
-        <v>624.3351397925982</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1372,12 +1248,6 @@
       <c r="B21" t="n">
         <v>284</v>
       </c>
-      <c r="C21" t="n">
-        <v>-58.47600451779857</v>
-      </c>
-      <c r="D21" t="n">
-        <v>656.7832882578225</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1386,12 +1256,6 @@
       <c r="B22" t="n">
         <v>282</v>
       </c>
-      <c r="C22" t="n">
-        <v>-72.56528532828105</v>
-      </c>
-      <c r="D22" t="n">
-        <v>621.3864486043724</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1400,12 +1264,6 @@
       <c r="B23" t="n">
         <v>277</v>
       </c>
-      <c r="C23" t="n">
-        <v>-58.88852438743053</v>
-      </c>
-      <c r="D23" t="n">
-        <v>672.9078333214946</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1414,12 +1272,6 @@
       <c r="B24" t="n">
         <v>275</v>
       </c>
-      <c r="C24" t="n">
-        <v>-72.99242096607676</v>
-      </c>
-      <c r="D24" t="n">
-        <v>609.6489405930225</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1428,12 +1280,6 @@
       <c r="B25" t="n">
         <v>270</v>
       </c>
-      <c r="C25" t="n">
-        <v>-91.20582919071835</v>
-      </c>
-      <c r="D25" t="n">
-        <v>614.7855425227057</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1442,12 +1288,6 @@
       <c r="B26" t="n">
         <v>268</v>
       </c>
-      <c r="C26" t="n">
-        <v>-83.51019347134407</v>
-      </c>
-      <c r="D26" t="n">
-        <v>613.0331092777222</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1456,12 +1296,6 @@
       <c r="B27" t="n">
         <v>265</v>
       </c>
-      <c r="C27" t="n">
-        <v>-77.51326738306278</v>
-      </c>
-      <c r="D27" t="n">
-        <v>591.2315946943029</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1470,12 +1304,6 @@
       <c r="B28" t="n">
         <v>263</v>
       </c>
-      <c r="C28" t="n">
-        <v>-85.68749804698612</v>
-      </c>
-      <c r="D28" t="n">
-        <v>601.6338371079014</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1484,12 +1312,6 @@
       <c r="B29" t="n">
         <v>258</v>
       </c>
-      <c r="C29" t="n">
-        <v>-93.39418558288745</v>
-      </c>
-      <c r="D29" t="n">
-        <v>596.2122583380341</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1498,12 +1320,6 @@
       <c r="B30" t="n">
         <v>256</v>
       </c>
-      <c r="C30" t="n">
-        <v>-85.0699769361165</v>
-      </c>
-      <c r="D30" t="n">
-        <v>630.0437527775626</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1512,12 +1328,6 @@
       <c r="B31" t="n">
         <v>254</v>
       </c>
-      <c r="C31" t="n">
-        <v>-101.6202177114198</v>
-      </c>
-      <c r="D31" t="n">
-        <v>595.9513445563022</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1526,12 +1336,6 @@
       <c r="B32" t="n">
         <v>247</v>
       </c>
-      <c r="C32" t="n">
-        <v>-121.2018536369302</v>
-      </c>
-      <c r="D32" t="n">
-        <v>565.4962411625565</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1540,12 +1344,6 @@
       <c r="B33" t="n">
         <v>242</v>
       </c>
-      <c r="C33" t="n">
-        <v>-108.4157484787357</v>
-      </c>
-      <c r="D33" t="n">
-        <v>605.5120494206094</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1554,12 +1352,6 @@
       <c r="B34" t="n">
         <v>240</v>
       </c>
-      <c r="C34" t="n">
-        <v>-120.0695449997605</v>
-      </c>
-      <c r="D34" t="n">
-        <v>565.6838344673314</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1568,12 +1360,6 @@
       <c r="B35" t="n">
         <v>238</v>
       </c>
-      <c r="C35" t="n">
-        <v>-98.1569368975275</v>
-      </c>
-      <c r="D35" t="n">
-        <v>596.3408382910482</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1582,12 +1368,6 @@
       <c r="B36" t="n">
         <v>233</v>
       </c>
-      <c r="C36" t="n">
-        <v>-123.1507567079288</v>
-      </c>
-      <c r="D36" t="n">
-        <v>558.8030000593279</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1596,12 +1376,6 @@
       <c r="B37" t="n">
         <v>231</v>
       </c>
-      <c r="C37" t="n">
-        <v>-99.07937779528889</v>
-      </c>
-      <c r="D37" t="n">
-        <v>583.3245498068366</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1610,12 +1384,6 @@
       <c r="B38" t="n">
         <v>224</v>
       </c>
-      <c r="C38" t="n">
-        <v>-127.3021344863284</v>
-      </c>
-      <c r="D38" t="n">
-        <v>572.5192337078789</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1624,12 +1392,6 @@
       <c r="B39" t="n">
         <v>221</v>
       </c>
-      <c r="C39" t="n">
-        <v>-101.7460589024874</v>
-      </c>
-      <c r="D39" t="n">
-        <v>574.0370140772895</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1638,12 +1400,6 @@
       <c r="B40" t="n">
         <v>219</v>
       </c>
-      <c r="C40" t="n">
-        <v>-131.1424980051536</v>
-      </c>
-      <c r="D40" t="n">
-        <v>550.552178025153</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1652,12 +1408,6 @@
       <c r="B41" t="n">
         <v>210</v>
       </c>
-      <c r="C41" t="n">
-        <v>-147.0474406954485</v>
-      </c>
-      <c r="D41" t="n">
-        <v>547.3779971616149</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1666,12 +1416,6 @@
       <c r="B42" t="n">
         <v>207</v>
       </c>
-      <c r="C42" t="n">
-        <v>-151.7080674280936</v>
-      </c>
-      <c r="D42" t="n">
-        <v>539.7203412191986</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1680,12 +1424,6 @@
       <c r="B43" t="n">
         <v>205</v>
       </c>
-      <c r="C43" t="n">
-        <v>-126.007092009298</v>
-      </c>
-      <c r="D43" t="n">
-        <v>555.0486016613869</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1694,12 +1432,6 @@
       <c r="B44" t="n">
         <v>200</v>
       </c>
-      <c r="C44" t="n">
-        <v>-166.3831988910805</v>
-      </c>
-      <c r="D44" t="n">
-        <v>532.5812654031087</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1708,12 +1440,6 @@
       <c r="B45" t="n">
         <v>198</v>
       </c>
-      <c r="C45" t="n">
-        <v>-130.7493440461967</v>
-      </c>
-      <c r="D45" t="n">
-        <v>534.8309792964264</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1722,12 +1448,6 @@
       <c r="B46" t="n">
         <v>184</v>
       </c>
-      <c r="C46" t="n">
-        <v>-160.9103694855962</v>
-      </c>
-      <c r="D46" t="n">
-        <v>504.680275581601</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1736,12 +1456,6 @@
       <c r="B47" t="n">
         <v>177</v>
       </c>
-      <c r="C47" t="n">
-        <v>-156.5322544396114</v>
-      </c>
-      <c r="D47" t="n">
-        <v>504.4191748126494</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1750,12 +1464,6 @@
       <c r="B48" t="n">
         <v>165</v>
       </c>
-      <c r="C48" t="n">
-        <v>-191.3342080315921</v>
-      </c>
-      <c r="D48" t="n">
-        <v>500.2519034245894</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1764,12 +1472,6 @@
       <c r="B49" t="n">
         <v>163</v>
       </c>
-      <c r="C49" t="n">
-        <v>-177.263427018036</v>
-      </c>
-      <c r="D49" t="n">
-        <v>506.7908271923731</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1778,12 +1480,6 @@
       <c r="B50" t="n">
         <v>161</v>
       </c>
-      <c r="C50" t="n">
-        <v>-172.2422641480331</v>
-      </c>
-      <c r="D50" t="n">
-        <v>492.3691708090032</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1792,12 +1488,6 @@
       <c r="B51" t="n">
         <v>151</v>
       </c>
-      <c r="C51" t="n">
-        <v>-224.6512425310385</v>
-      </c>
-      <c r="D51" t="n">
-        <v>481.588715308413</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1806,12 +1496,6 @@
       <c r="B52" t="n">
         <v>149</v>
       </c>
-      <c r="C52" t="n">
-        <v>-206.3073305051263</v>
-      </c>
-      <c r="D52" t="n">
-        <v>484.0604105502857</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1820,12 +1504,6 @@
       <c r="B53" t="n">
         <v>147</v>
       </c>
-      <c r="C53" t="n">
-        <v>-208.713621373703</v>
-      </c>
-      <c r="D53" t="n">
-        <v>501.0721262433239</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1834,12 +1512,6 @@
       <c r="B54" t="n">
         <v>142</v>
       </c>
-      <c r="C54" t="n">
-        <v>-214.2704146040026</v>
-      </c>
-      <c r="D54" t="n">
-        <v>496.6898215604519</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1848,12 +1520,6 @@
       <c r="B55" t="n">
         <v>140</v>
       </c>
-      <c r="C55" t="n">
-        <v>-212.3792872544751</v>
-      </c>
-      <c r="D55" t="n">
-        <v>482.3863591813515</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1862,12 +1528,6 @@
       <c r="B56" t="n">
         <v>137</v>
       </c>
-      <c r="C56" t="n">
-        <v>-215.36396393634</v>
-      </c>
-      <c r="D56" t="n">
-        <v>482.3499601960738</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1876,12 +1536,6 @@
       <c r="B57" t="n">
         <v>135</v>
       </c>
-      <c r="C57" t="n">
-        <v>-233.0152440822609</v>
-      </c>
-      <c r="D57" t="n">
-        <v>496.380706145786</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1890,12 +1544,6 @@
       <c r="B58" t="n">
         <v>133</v>
       </c>
-      <c r="C58" t="n">
-        <v>-192.1506443929858</v>
-      </c>
-      <c r="D58" t="n">
-        <v>492.486980214681</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1904,12 +1552,6 @@
       <c r="B59" t="n">
         <v>130</v>
       </c>
-      <c r="C59" t="n">
-        <v>-188.4755501528893</v>
-      </c>
-      <c r="D59" t="n">
-        <v>481.9131718326693</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1918,12 +1560,6 @@
       <c r="B60" t="n">
         <v>128</v>
       </c>
-      <c r="C60" t="n">
-        <v>-213.3871742481033</v>
-      </c>
-      <c r="D60" t="n">
-        <v>481.3796036410936</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1932,12 +1568,6 @@
       <c r="B61" t="n">
         <v>126</v>
       </c>
-      <c r="C61" t="n">
-        <v>-214.6214659910042</v>
-      </c>
-      <c r="D61" t="n">
-        <v>488.9176511051792</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1945,12 +1575,6 @@
       </c>
       <c r="B62" t="n">
         <v>123</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-202.4355411006563</v>
-      </c>
-      <c r="D62" t="n">
-        <v>483.1175582597609</v>
       </c>
     </row>
   </sheetData>
